--- a/Docs/BSides22 Project Summary.xlsx
+++ b/Docs/BSides22 Project Summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20B99DDE-D15D-4F12-B7DA-C1C2E3A853AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE49461-28C5-4CB0-A014-2B56AD0F70A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34030" yWindow="1630" windowWidth="32830" windowHeight="16520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34670" yWindow="2340" windowWidth="35760" windowHeight="17560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Summary" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="170">
   <si>
     <t>Project Name</t>
   </si>
@@ -541,6 +541,9 @@
   </si>
   <si>
     <t>LCSC</t>
+  </si>
+  <si>
+    <t>Professional Services</t>
   </si>
 </sst>
 </file>
@@ -1451,39 +1454,6 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="7" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="7" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1514,24 +1484,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1559,20 +1511,8 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="12" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1584,6 +1524,69 @@
     <xf numFmtId="15" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1893,39 +1896,39 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="121" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="96"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="123"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="85" t="s">
+      <c r="B3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="97"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="126"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="74" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="4"/>
@@ -1939,7 +1942,7 @@
       <c r="K4" s="6"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="74" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="43"/>
@@ -1953,7 +1956,7 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="74" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="44"/>
@@ -1967,39 +1970,39 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="74" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="45">
         <v>400</v>
       </c>
-      <c r="D7" s="87">
+      <c r="D7" s="76">
         <v>400</v>
       </c>
-      <c r="E7" s="87">
+      <c r="E7" s="76">
         <v>35</v>
       </c>
-      <c r="F7" s="87">
+      <c r="F7" s="76">
         <v>10</v>
       </c>
-      <c r="G7" s="87">
+      <c r="G7" s="76">
         <v>30</v>
       </c>
-      <c r="H7" s="87">
+      <c r="H7" s="76">
         <v>20</v>
       </c>
-      <c r="I7" s="87">
+      <c r="I7" s="76">
         <v>25</v>
       </c>
-      <c r="J7" s="87">
+      <c r="J7" s="76">
         <v>200</v>
       </c>
-      <c r="K7" s="88">
+      <c r="K7" s="77">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="74" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2"/>
@@ -2013,7 +2016,7 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="74" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2"/>
@@ -2027,7 +2030,7 @@
       <c r="K9" s="6"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="74" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2054,12 +2057,12 @@
       <c r="J10" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="K10" s="93" t="s">
+      <c r="K10" s="82" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="74" t="s">
         <v>136</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2087,7 +2090,7 @@
       <c r="K11" s="6"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="74" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2115,7 +2118,7 @@
       <c r="K12" s="6"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="74" t="s">
         <v>141</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2143,7 +2146,7 @@
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="74" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2161,7 +2164,7 @@
       <c r="K14" s="6"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="74" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="2"/>
@@ -2175,7 +2178,7 @@
       <c r="K15" s="6"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="74" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -2205,7 +2208,7 @@
       <c r="K16" s="6"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="74" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2223,7 +2226,7 @@
       <c r="K17" s="6"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="74" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="2">
@@ -2241,7 +2244,7 @@
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="85" t="s">
+      <c r="B19" s="74" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="2"/>
@@ -2255,7 +2258,7 @@
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="75" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="8"/>
@@ -2372,58 +2375,58 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="133"/>
+      <c r="C2" s="112"/>
     </row>
     <row r="3" spans="2:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="135"/>
+      <c r="C3" s="114"/>
     </row>
     <row r="4" spans="2:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="135"/>
+      <c r="C4" s="114"/>
     </row>
     <row r="5" spans="2:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="135"/>
+      <c r="C5" s="114"/>
     </row>
     <row r="6" spans="2:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="135"/>
+      <c r="C6" s="114"/>
     </row>
     <row r="7" spans="2:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="136"/>
+      <c r="C7" s="115"/>
     </row>
     <row r="8" spans="2:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="B8" s="134" t="s">
+      <c r="B8" s="113" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="135"/>
+      <c r="C8" s="114"/>
     </row>
     <row r="9" spans="2:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="B9" s="134" t="s">
+      <c r="B9" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="137"/>
+      <c r="C9" s="116"/>
     </row>
     <row r="10" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="138" t="s">
+      <c r="B10" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="139"/>
+      <c r="C10" s="118"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2432,10 +2435,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230ECA56-04B2-4271-9B6D-69C62BBA135C}">
-  <dimension ref="B1:P36"/>
+  <dimension ref="B1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2444,10 +2447,10 @@
     <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
     <col min="7" max="7" width="5.88671875" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" customWidth="1"/>
     <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -2459,43 +2462,43 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="129" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="E2" s="61" t="s">
+      <c r="C2" s="130"/>
+      <c r="E2" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="62"/>
-      <c r="H2" s="61" t="s">
+      <c r="F2" s="132"/>
+      <c r="H2" s="131" t="s">
         <v>144</v>
       </c>
-      <c r="I2" s="62"/>
-      <c r="K2" s="63" t="s">
+      <c r="I2" s="132"/>
+      <c r="K2" s="133" t="s">
         <v>160</v>
       </c>
-      <c r="L2" s="64"/>
+      <c r="L2" s="134"/>
     </row>
     <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="101">
+      <c r="C3" s="84">
         <f>'Project Summary'!C7</f>
         <v>400</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="89">
+      <c r="F3" s="78">
         <f>'Project Summary'!K7</f>
         <v>40</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="89">
-        <f>I26</f>
+      <c r="I3" s="78">
+        <f>I27</f>
         <v>600</v>
       </c>
       <c r="K3" s="50" t="s">
@@ -2504,23 +2507,23 @@
       <c r="L3" s="48"/>
     </row>
     <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="103">
-        <f>C28</f>
+      <c r="C4" s="86">
+        <f>C29</f>
         <v>530</v>
       </c>
-      <c r="E4" s="104"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="90"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="79"/>
       <c r="K4" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="116">
-        <f>L16</f>
+      <c r="L4" s="99">
+        <f>L17</f>
         <v>14064.490000000002</v>
       </c>
     </row>
@@ -2533,22 +2536,22 @@
       </c>
     </row>
     <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="E6" s="59" t="s">
+      <c r="C6" s="128"/>
+      <c r="E6" s="127" t="s">
         <v>151</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="H6" s="59" t="s">
+      <c r="F6" s="128"/>
+      <c r="H6" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="60"/>
+      <c r="I6" s="128"/>
       <c r="K6" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="L6" s="117">
+      <c r="L6" s="100">
         <f>L4-L5</f>
         <v>10064.490000000002</v>
       </c>
@@ -2620,8 +2623,8 @@
       <c r="B10" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="110">
-        <f>D31</f>
+      <c r="C10" s="93">
+        <f>D32</f>
         <v>374.57999999999993</v>
       </c>
       <c r="E10" s="34" t="s">
@@ -2633,8 +2636,8 @@
       <c r="H10" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="110">
-        <f>J29</f>
+      <c r="I10" s="93">
+        <f>J30</f>
         <v>288.3</v>
       </c>
     </row>
@@ -2642,8 +2645,8 @@
       <c r="B11" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="110">
-        <f>D28</f>
+      <c r="C11" s="93">
+        <f>D29</f>
         <v>1034.67</v>
       </c>
       <c r="E11" s="34" t="s">
@@ -2655,8 +2658,8 @@
       <c r="H11" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="110">
-        <f>J26</f>
+      <c r="I11" s="93">
+        <f>J27</f>
         <v>320.45</v>
       </c>
     </row>
@@ -2664,19 +2667,19 @@
       <c r="B12" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="71">
+      <c r="C12" s="60">
         <v>250</v>
       </c>
       <c r="E12" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="71">
+      <c r="F12" s="60">
         <v>250</v>
       </c>
       <c r="H12" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="71">
+      <c r="I12" s="60">
         <v>0</v>
       </c>
     </row>
@@ -2684,19 +2687,19 @@
       <c r="B13" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="71">
+      <c r="C13" s="60">
         <v>600</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="71">
+      <c r="F13" s="60">
         <v>0</v>
       </c>
       <c r="H13" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="I13" s="71">
+      <c r="I13" s="60">
         <v>0</v>
       </c>
     </row>
@@ -2704,347 +2707,367 @@
       <c r="B14" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="C14" s="71">
+      <c r="C14" s="60">
         <v>800</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="F14" s="71">
+      <c r="F14" s="60">
         <v>100</v>
       </c>
       <c r="H14" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="I14" s="71">
+      <c r="I14" s="60">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="60">
+        <v>0</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="60">
+        <v>0</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="I15" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C16" s="39">
         <f>'ConBadge BOM'!J32</f>
         <v>2398.4</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E16" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F16" s="39">
         <f>'KidsBadge BOM'!J29</f>
         <v>0</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H16" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I16" s="39">
         <f>'SAO BOM'!J14</f>
         <v>240</v>
       </c>
-      <c r="O15" s="53"/>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="36" t="s">
+      <c r="O16" s="53"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="40">
-        <f>SUM(C7:C15)</f>
+      <c r="C17" s="40">
+        <f>SUM(C7:C16)</f>
         <v>12154.78</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E17" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="40">
-        <f>SUM(F7:F15)</f>
+      <c r="F17" s="40">
+        <f>SUM(F7:F16)</f>
         <v>1060.96</v>
       </c>
-      <c r="H16" s="36" t="s">
+      <c r="H17" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="40">
-        <f>SUM(I7:I15)</f>
+      <c r="I17" s="40">
+        <f>SUM(I7:I16)</f>
         <v>848.75</v>
       </c>
-      <c r="K16" s="28" t="s">
+      <c r="K17" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="L16" s="27">
-        <f>C16+F16+I16</f>
+      <c r="L17" s="27">
+        <f>C17+F17+I17</f>
         <v>14064.490000000002</v>
       </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="O17" s="53"/>
-      <c r="P17" s="55"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="1"/>
     </row>
     <row r="18" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="26" t="s">
+      <c r="O18" s="53"/>
+      <c r="P18" s="55"/>
+    </row>
+    <row r="19" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="29">
-        <f>C16 / (C3)</f>
+      <c r="C19" s="29">
+        <f>C17 / (C3)</f>
         <v>30.386950000000002</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E19" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="29">
-        <f>F16/F3</f>
+      <c r="F19" s="29">
+        <f>F17/F3</f>
         <v>26.524000000000001</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H19" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="29">
-        <f>I16/I3</f>
+      <c r="I19" s="29">
+        <f>I17/I3</f>
         <v>1.4145833333333333</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H19" s="104"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="105"/>
+      <c r="L19" s="3"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="3"/>
     </row>
     <row r="20" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="63" t="s">
+      <c r="H20" s="87"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="88"/>
+    </row>
+    <row r="21" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="133" t="s">
         <v>158</v>
       </c>
-      <c r="C20" s="130"/>
-      <c r="D20" s="64"/>
-      <c r="H20" s="125" t="s">
+      <c r="C21" s="135"/>
+      <c r="D21" s="134"/>
+      <c r="H21" s="136" t="s">
         <v>159</v>
       </c>
-      <c r="I20" s="126"/>
-      <c r="J20" s="127"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="128" t="s">
+      <c r="I21" s="137"/>
+      <c r="J21" s="138"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="129">
+      <c r="C22" s="109">
         <f>'Project Summary'!C7</f>
         <v>400</v>
       </c>
-      <c r="D21" s="124">
+      <c r="D22" s="107">
         <v>577.08000000000004</v>
       </c>
-      <c r="H21" s="122" t="s">
+      <c r="H22" s="105" t="s">
         <v>152</v>
       </c>
-      <c r="I21" s="123">
+      <c r="I22" s="106">
         <v>400</v>
       </c>
-      <c r="J21" s="124">
+      <c r="J22" s="107">
         <v>175.39</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="100" t="s">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="91">
+      <c r="C23" s="80">
         <f>'Project Summary'!E7</f>
         <v>35</v>
       </c>
-      <c r="D22" s="106">
+      <c r="D23" s="89">
         <v>87.97</v>
       </c>
-      <c r="H22" s="120" t="s">
+      <c r="H23" s="103" t="s">
         <v>153</v>
       </c>
-      <c r="I22" s="114">
+      <c r="I23" s="97">
         <v>50</v>
       </c>
-      <c r="J22" s="106">
+      <c r="J23" s="89">
         <v>25.97</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="100" t="s">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="91">
+      <c r="C24" s="80">
         <f>'Project Summary'!F7</f>
         <v>10</v>
       </c>
-      <c r="D23" s="106">
+      <c r="D24" s="89">
         <v>108.71</v>
       </c>
-      <c r="H23" s="120" t="s">
+      <c r="H24" s="103" t="s">
         <v>154</v>
       </c>
-      <c r="I23" s="114">
+      <c r="I24" s="97">
         <v>50</v>
       </c>
-      <c r="J23" s="106">
+      <c r="J24" s="89">
         <v>77.03</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="100" t="s">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="83" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="91">
+      <c r="C25" s="80">
         <f>'Project Summary'!G7</f>
         <v>30</v>
       </c>
-      <c r="D24" s="106">
+      <c r="D25" s="89">
         <v>63.31</v>
       </c>
-      <c r="H24" s="120" t="s">
+      <c r="H25" s="103" t="s">
         <v>155</v>
       </c>
-      <c r="I24" s="114">
+      <c r="I25" s="97">
         <v>50</v>
       </c>
-      <c r="J24" s="106">
+      <c r="J25" s="89">
         <v>21.29</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="100" t="s">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B26" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="C25" s="91">
+      <c r="C26" s="80">
         <v>10</v>
       </c>
-      <c r="D25" s="106">
+      <c r="D26" s="89">
         <v>39.47</v>
       </c>
-      <c r="H25" s="120" t="s">
+      <c r="H26" s="103" t="s">
         <v>156</v>
       </c>
-      <c r="I25" s="114">
+      <c r="I26" s="97">
         <v>50</v>
       </c>
-      <c r="J25" s="106">
+      <c r="J26" s="89">
         <v>20.77</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="100" t="s">
+    <row r="27" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="91">
+      <c r="C27" s="80">
         <f>'Project Summary'!I7</f>
         <v>25</v>
       </c>
-      <c r="D26" s="106">
+      <c r="D27" s="89">
         <v>94.82</v>
       </c>
-      <c r="H26" s="121" t="s">
+      <c r="H27" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="I26" s="8">
-        <f>SUM(I21:I25)</f>
+      <c r="I27" s="8">
+        <f>SUM(I22:I26)</f>
         <v>600</v>
       </c>
-      <c r="J26" s="111">
-        <f>SUM(J21:J25)</f>
+      <c r="J27" s="94">
+        <f>SUM(J22:J26)</f>
         <v>320.45</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="102" t="s">
+    <row r="28" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="107">
+      <c r="C28" s="90">
         <f>'Project Summary'!H7</f>
         <v>20</v>
       </c>
-      <c r="D27" s="108">
+      <c r="D28" s="91">
         <v>63.31</v>
       </c>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="119" t="s">
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="102" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="41">
-        <f>SUM(C21:C27)</f>
+      <c r="C29" s="41">
+        <f>SUM(C22:C28)</f>
         <v>530</v>
       </c>
-      <c r="D28" s="118">
-        <f>SUM(D21:D27)</f>
+      <c r="D29" s="101">
+        <f>SUM(D22:D28)</f>
         <v>1034.67</v>
       </c>
-      <c r="I28" s="112" t="s">
+      <c r="I29" s="95" t="s">
         <v>165</v>
       </c>
-      <c r="J28" s="48">
+      <c r="J29" s="48">
         <f>293.7+315.05</f>
         <v>608.75</v>
       </c>
     </row>
-    <row r="29" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I29" s="113" t="s">
+    <row r="30" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I30" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="J29" s="111">
-        <f>J28-J26</f>
+      <c r="J30" s="94">
+        <f>J29-J27</f>
         <v>288.3</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C30" s="112" t="s">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C31" s="95" t="s">
         <v>150</v>
       </c>
-      <c r="D30" s="48">
+      <c r="D31" s="48">
         <v>1409.25</v>
       </c>
     </row>
-    <row r="31" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C31" s="113" t="s">
+    <row r="32" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="96" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="109">
-        <f>D30-D28</f>
+      <c r="D32" s="92">
+        <f>D31-D29</f>
         <v>374.57999999999993</v>
       </c>
     </row>
-    <row r="32" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="22" t="s">
+    <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="23" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="24" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="25" t="s">
+    <row r="37" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="H36" s="56"/>
-      <c r="I36" s="55"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="H21:J21"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="H20:J20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -3075,18 +3098,18 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="67"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="141"/>
     </row>
     <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="13" t="s">
@@ -3122,577 +3145,577 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75" t="s">
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="76">
+      <c r="G4" s="65">
         <v>0.03</v>
       </c>
-      <c r="H4" s="75">
+      <c r="H4" s="64">
         <v>20</v>
       </c>
-      <c r="I4" s="76">
+      <c r="I4" s="65">
         <f>G4*H4</f>
         <v>0.6</v>
       </c>
-      <c r="J4" s="76">
+      <c r="J4" s="65">
         <f>I4*'Cost Summary'!C3</f>
         <v>240</v>
       </c>
-      <c r="K4" s="77"/>
+      <c r="K4" s="66"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75" t="s">
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="76">
+      <c r="G5" s="65">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H5" s="75">
+      <c r="H5" s="64">
         <v>1</v>
       </c>
-      <c r="I5" s="76">
+      <c r="I5" s="65">
         <f t="shared" ref="I5:I23" si="0">G5*H5</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J5" s="76">
+      <c r="J5" s="65">
         <f>I5*J3</f>
         <v>28.000000000000004</v>
       </c>
-      <c r="K5" s="77"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="76">
+      <c r="G6" s="65">
         <v>0.03</v>
       </c>
-      <c r="H6" s="75">
+      <c r="H6" s="64">
         <v>1</v>
       </c>
-      <c r="I6" s="76">
+      <c r="I6" s="65">
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="J6" s="76">
+      <c r="J6" s="65">
         <f>I6*J3</f>
         <v>12</v>
       </c>
-      <c r="K6" s="77"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="G7" s="76">
+      <c r="G7" s="65">
         <v>0.02</v>
       </c>
-      <c r="H7" s="75">
+      <c r="H7" s="64">
         <v>1</v>
       </c>
-      <c r="I7" s="76">
+      <c r="I7" s="65">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="J7" s="76">
+      <c r="J7" s="65">
         <f>I7*J3</f>
         <v>8</v>
       </c>
-      <c r="K7" s="77"/>
+      <c r="K7" s="66"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75" t="s">
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="76">
+      <c r="G8" s="65">
         <v>2.9</v>
       </c>
-      <c r="H8" s="75">
+      <c r="H8" s="64">
         <v>1</v>
       </c>
-      <c r="I8" s="76">
+      <c r="I8" s="65">
         <f t="shared" si="0"/>
         <v>2.9</v>
       </c>
-      <c r="J8" s="76">
+      <c r="J8" s="65">
         <f>I8*J3</f>
         <v>1160</v>
       </c>
-      <c r="K8" s="77"/>
+      <c r="K8" s="66"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75" t="s">
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="76">
+      <c r="G9" s="65">
         <v>0.21</v>
       </c>
-      <c r="H9" s="75">
+      <c r="H9" s="64">
         <v>18</v>
       </c>
-      <c r="I9" s="76">
+      <c r="I9" s="65">
         <f t="shared" si="0"/>
         <v>3.78</v>
       </c>
-      <c r="J9" s="76">
+      <c r="J9" s="65">
         <f>I9*J3</f>
         <v>1512</v>
       </c>
-      <c r="K9" s="77"/>
+      <c r="K9" s="66"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75" t="s">
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="76">
+      <c r="G10" s="65">
         <v>0.45</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="64">
         <v>1</v>
       </c>
-      <c r="I10" s="76">
+      <c r="I10" s="65">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="J10" s="76">
+      <c r="J10" s="65">
         <f>I10*J3</f>
         <v>180</v>
       </c>
-      <c r="K10" s="77"/>
+      <c r="K10" s="66"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75" t="s">
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="G11" s="76">
+      <c r="G11" s="65">
         <v>0.05</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="64">
         <v>3</v>
       </c>
-      <c r="I11" s="76">
+      <c r="I11" s="65">
         <f t="shared" si="0"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="J11" s="76">
+      <c r="J11" s="65">
         <f>I11*J3</f>
         <v>60.000000000000007</v>
       </c>
-      <c r="K11" s="77"/>
+      <c r="K11" s="66"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75" t="s">
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="76">
+      <c r="G12" s="65">
         <v>0.23</v>
       </c>
-      <c r="H12" s="75">
+      <c r="H12" s="64">
         <v>1</v>
       </c>
-      <c r="I12" s="76">
+      <c r="I12" s="65">
         <f t="shared" si="0"/>
         <v>0.23</v>
       </c>
-      <c r="J12" s="76">
+      <c r="J12" s="65">
         <f>I12*J3</f>
         <v>92</v>
       </c>
-      <c r="K12" s="77"/>
+      <c r="K12" s="66"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75" t="s">
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="76">
+      <c r="G13" s="65">
         <v>1.5</v>
       </c>
-      <c r="H13" s="75">
+      <c r="H13" s="64">
         <v>1</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="65">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="J13" s="76">
+      <c r="J13" s="65">
         <f>I13*J3</f>
         <v>600</v>
       </c>
-      <c r="K13" s="77"/>
+      <c r="K13" s="66"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75" t="s">
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="76">
+      <c r="G14" s="65">
         <v>0.27</v>
       </c>
-      <c r="H14" s="75">
+      <c r="H14" s="64">
         <v>2</v>
       </c>
-      <c r="I14" s="76">
+      <c r="I14" s="65">
         <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
-      <c r="J14" s="76">
+      <c r="J14" s="65">
         <f>I14*J3</f>
         <v>216</v>
       </c>
-      <c r="K14" s="77"/>
+      <c r="K14" s="66"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75" t="s">
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="G15" s="76">
+      <c r="G15" s="65">
         <v>2</v>
       </c>
-      <c r="H15" s="75">
+      <c r="H15" s="64">
         <v>1</v>
       </c>
-      <c r="I15" s="76">
+      <c r="I15" s="65">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J15" s="76">
+      <c r="J15" s="65">
         <f>I15*J3</f>
         <v>800</v>
       </c>
-      <c r="K15" s="77"/>
+      <c r="K15" s="66"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75" t="s">
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="76">
+      <c r="G16" s="65">
         <v>0.53</v>
       </c>
-      <c r="H16" s="75">
+      <c r="H16" s="64">
         <v>1</v>
       </c>
-      <c r="I16" s="76">
+      <c r="I16" s="65">
         <f t="shared" si="0"/>
         <v>0.53</v>
       </c>
-      <c r="J16" s="76">
+      <c r="J16" s="65">
         <f>I16*J3</f>
         <v>212</v>
       </c>
-      <c r="K16" s="77"/>
+      <c r="K16" s="66"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75" t="s">
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="G17" s="76">
+      <c r="G17" s="65">
         <v>0.43</v>
       </c>
-      <c r="H17" s="75">
+      <c r="H17" s="64">
         <v>1</v>
       </c>
-      <c r="I17" s="76">
+      <c r="I17" s="65">
         <f t="shared" si="0"/>
         <v>0.43</v>
       </c>
-      <c r="J17" s="76">
+      <c r="J17" s="65">
         <f>I17*J3</f>
         <v>172</v>
       </c>
-      <c r="K17" s="77"/>
+      <c r="K17" s="66"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75" t="s">
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="76">
+      <c r="G18" s="65">
         <v>0.02</v>
       </c>
-      <c r="H18" s="75">
+      <c r="H18" s="64">
         <v>1</v>
       </c>
-      <c r="I18" s="76">
+      <c r="I18" s="65">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="J18" s="76">
+      <c r="J18" s="65">
         <f>I18*J3</f>
         <v>8</v>
       </c>
-      <c r="K18" s="77"/>
+      <c r="K18" s="66"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75" t="s">
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="76">
+      <c r="G19" s="65">
         <v>0.47</v>
       </c>
-      <c r="H19" s="75">
+      <c r="H19" s="64">
         <v>1</v>
       </c>
-      <c r="I19" s="76">
+      <c r="I19" s="65">
         <f t="shared" si="0"/>
         <v>0.47</v>
       </c>
-      <c r="J19" s="76">
+      <c r="J19" s="65">
         <f>I19*J3</f>
         <v>188</v>
       </c>
-      <c r="K19" s="77"/>
+      <c r="K19" s="66"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="74" t="s">
+      <c r="B20" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75" t="s">
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="76">
+      <c r="G20" s="65">
         <v>0.62</v>
       </c>
-      <c r="H20" s="75">
+      <c r="H20" s="64">
         <v>1</v>
       </c>
-      <c r="I20" s="76">
+      <c r="I20" s="65">
         <f t="shared" si="0"/>
         <v>0.62</v>
       </c>
-      <c r="J20" s="76">
+      <c r="J20" s="65">
         <f>I20*J3</f>
         <v>248</v>
       </c>
-      <c r="K20" s="77"/>
+      <c r="K20" s="66"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75" t="s">
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="G21" s="76">
+      <c r="G21" s="65">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H21" s="75">
+      <c r="H21" s="64">
         <v>1</v>
       </c>
-      <c r="I21" s="76">
+      <c r="I21" s="65">
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J21" s="76">
+      <c r="J21" s="65">
         <f>I21*J3</f>
         <v>28.000000000000004</v>
       </c>
-      <c r="K21" s="77"/>
+      <c r="K21" s="66"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="68"/>
-      <c r="B22" s="74" t="s">
+      <c r="A22" s="57"/>
+      <c r="B22" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="C22" s="75" t="s">
+      <c r="C22" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75" t="s">
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="G22" s="76">
+      <c r="G22" s="65">
         <v>0.03</v>
       </c>
-      <c r="H22" s="75">
+      <c r="H22" s="64">
         <v>1</v>
       </c>
-      <c r="I22" s="76">
+      <c r="I22" s="65">
         <f t="shared" si="0"/>
         <v>0.03</v>
       </c>
-      <c r="J22" s="76">
+      <c r="J22" s="65">
         <f>I22*J3</f>
         <v>12</v>
       </c>
-      <c r="K22" s="77"/>
-      <c r="L22" s="83"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="72"/>
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="79" t="s">
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="81">
+      <c r="G23" s="70">
         <v>0.02</v>
       </c>
-      <c r="H23" s="79">
+      <c r="H23" s="68">
         <v>1</v>
       </c>
-      <c r="I23" s="81">
+      <c r="I23" s="70">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="J23" s="81">
+      <c r="J23" s="70">
         <f>I23*J3</f>
         <v>8</v>
       </c>
-      <c r="K23" s="82"/>
+      <c r="K23" s="71"/>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H24" s="72">
+      <c r="H24" s="61">
         <f>SUM(H4:H23)</f>
         <v>59</v>
       </c>
-      <c r="I24" s="69">
+      <c r="I24" s="58">
         <f>SUM(I4:I23)</f>
         <v>14.459999999999997</v>
       </c>
-      <c r="J24" s="73">
+      <c r="J24" s="62">
         <f>SUM(J3:J23)</f>
         <v>6184</v>
       </c>
@@ -3702,18 +3725,18 @@
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="139" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="67"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="141"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B27" s="17" t="s">
@@ -3805,7 +3828,7 @@
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="83"/>
+      <c r="A30" s="72"/>
       <c r="B30" s="10"/>
       <c r="C30" s="2" t="s">
         <v>166</v>
@@ -3830,7 +3853,7 @@
         <v>1284</v>
       </c>
       <c r="K30" s="46"/>
-      <c r="L30" s="83"/>
+      <c r="L30" s="72"/>
     </row>
     <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="11"/>
@@ -3856,14 +3879,14 @@
         <f>I31*J27</f>
         <v>88</v>
       </c>
-      <c r="K31" s="84"/>
+      <c r="K31" s="73"/>
     </row>
     <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I32" s="69">
+      <c r="I32" s="58">
         <f>SUM(I28:I31)</f>
         <v>5.9959999999999996</v>
       </c>
-      <c r="J32" s="70">
+      <c r="J32" s="59">
         <f>SUM(J28:J31)</f>
         <v>2398.4</v>
       </c>
@@ -3905,18 +3928,18 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="67"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="141"/>
     </row>
     <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="13" t="s">
@@ -3952,521 +3975,521 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75" t="s">
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="G4" s="76">
+      <c r="G4" s="65">
         <v>0.02</v>
       </c>
-      <c r="H4" s="75">
+      <c r="H4" s="64">
         <v>3</v>
       </c>
-      <c r="I4" s="76">
+      <c r="I4" s="65">
         <f>G4*H4</f>
         <v>0.06</v>
       </c>
-      <c r="J4" s="76">
+      <c r="J4" s="65">
         <f>I4*J3</f>
         <v>2.4</v>
       </c>
-      <c r="K4" s="77"/>
+      <c r="K4" s="66"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75" t="s">
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="76">
+      <c r="G5" s="65">
         <v>0.05</v>
       </c>
-      <c r="H5" s="75">
+      <c r="H5" s="64">
         <v>1</v>
       </c>
-      <c r="I5" s="76">
+      <c r="I5" s="65">
         <f t="shared" ref="I5:I21" si="0">G5*H5</f>
         <v>0.05</v>
       </c>
-      <c r="J5" s="76">
+      <c r="J5" s="65">
         <f>I5*J3</f>
         <v>2</v>
       </c>
-      <c r="K5" s="77"/>
+      <c r="K5" s="66"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="76">
+      <c r="G6" s="65">
         <v>0.02</v>
       </c>
-      <c r="H6" s="75">
+      <c r="H6" s="64">
         <v>1</v>
       </c>
-      <c r="I6" s="76">
+      <c r="I6" s="65">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="J6" s="76">
+      <c r="J6" s="65">
         <f>I6*J3</f>
         <v>0.8</v>
       </c>
-      <c r="K6" s="77"/>
+      <c r="K6" s="66"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="76">
+      <c r="G7" s="65">
         <v>2.9</v>
       </c>
-      <c r="H7" s="75">
+      <c r="H7" s="64">
         <v>1</v>
       </c>
-      <c r="I7" s="76">
+      <c r="I7" s="65">
         <f t="shared" si="0"/>
         <v>2.9</v>
       </c>
-      <c r="J7" s="76">
+      <c r="J7" s="65">
         <f>I7*J3</f>
         <v>116</v>
       </c>
-      <c r="K7" s="77"/>
+      <c r="K7" s="66"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75" t="s">
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="76">
+      <c r="G8" s="65">
         <v>0.18</v>
       </c>
-      <c r="H8" s="75">
+      <c r="H8" s="64">
         <v>3</v>
       </c>
-      <c r="I8" s="76">
+      <c r="I8" s="65">
         <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
-      <c r="J8" s="76">
+      <c r="J8" s="65">
         <f>I8*J3</f>
         <v>21.6</v>
       </c>
-      <c r="K8" s="77"/>
+      <c r="K8" s="66"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="63" t="s">
         <v>110</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75" t="s">
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="76">
+      <c r="G9" s="65">
         <v>0.45</v>
       </c>
-      <c r="H9" s="75">
+      <c r="H9" s="64">
         <v>1</v>
       </c>
-      <c r="I9" s="76">
+      <c r="I9" s="65">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="J9" s="76">
+      <c r="J9" s="65">
         <f>I9*J3</f>
         <v>18</v>
       </c>
-      <c r="K9" s="77"/>
+      <c r="K9" s="66"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75" t="s">
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="76">
+      <c r="G10" s="65">
         <v>0.05</v>
       </c>
-      <c r="H10" s="75">
+      <c r="H10" s="64">
         <v>3</v>
       </c>
-      <c r="I10" s="76">
+      <c r="I10" s="65">
         <f t="shared" si="0"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="J10" s="76">
+      <c r="J10" s="65">
         <f>I10*J3</f>
         <v>6.0000000000000009</v>
       </c>
-      <c r="K10" s="77"/>
+      <c r="K10" s="66"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75" t="s">
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="G11" s="76">
+      <c r="G11" s="65">
         <v>0.23</v>
       </c>
-      <c r="H11" s="75">
+      <c r="H11" s="64">
         <v>1</v>
       </c>
-      <c r="I11" s="76">
+      <c r="I11" s="65">
         <f t="shared" si="0"/>
         <v>0.23</v>
       </c>
-      <c r="J11" s="76">
+      <c r="J11" s="65">
         <f>I11*J3</f>
         <v>9.2000000000000011</v>
       </c>
-      <c r="K11" s="77"/>
+      <c r="K11" s="66"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75" t="s">
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="76">
+      <c r="G12" s="65">
         <v>1.42</v>
       </c>
-      <c r="H12" s="75">
+      <c r="H12" s="64">
         <v>1</v>
       </c>
-      <c r="I12" s="76">
+      <c r="I12" s="65">
         <f t="shared" si="0"/>
         <v>1.42</v>
       </c>
-      <c r="J12" s="76">
+      <c r="J12" s="65">
         <f>I12*J3</f>
         <v>56.8</v>
       </c>
-      <c r="K12" s="77"/>
+      <c r="K12" s="66"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75" t="s">
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="76">
+      <c r="G13" s="65">
         <v>0.25</v>
       </c>
-      <c r="H13" s="75">
+      <c r="H13" s="64">
         <v>2</v>
       </c>
-      <c r="I13" s="76">
+      <c r="I13" s="65">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="J13" s="76">
+      <c r="J13" s="65">
         <f>I13*J3</f>
         <v>20</v>
       </c>
-      <c r="K13" s="77"/>
+      <c r="K13" s="66"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75" t="s">
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="76">
+      <c r="G14" s="65">
         <v>2</v>
       </c>
-      <c r="H14" s="75">
+      <c r="H14" s="64">
         <v>1</v>
       </c>
-      <c r="I14" s="76">
+      <c r="I14" s="65">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J14" s="76">
+      <c r="J14" s="65">
         <f>I14*J3</f>
         <v>80</v>
       </c>
-      <c r="K14" s="77"/>
+      <c r="K14" s="66"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="75" t="s">
+      <c r="C15" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75" t="s">
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="76">
+      <c r="G15" s="65">
         <v>0.48</v>
       </c>
-      <c r="H15" s="75">
+      <c r="H15" s="64">
         <v>1</v>
       </c>
-      <c r="I15" s="76">
+      <c r="I15" s="65">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
-      <c r="J15" s="76">
+      <c r="J15" s="65">
         <f>I15*J3</f>
         <v>19.2</v>
       </c>
-      <c r="K15" s="77"/>
+      <c r="K15" s="66"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="75" t="s">
+      <c r="C16" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75" t="s">
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="G16" s="76">
+      <c r="G16" s="65">
         <v>0.38</v>
       </c>
-      <c r="H16" s="75">
+      <c r="H16" s="64">
         <v>1</v>
       </c>
-      <c r="I16" s="76">
+      <c r="I16" s="65">
         <f t="shared" si="0"/>
         <v>0.38</v>
       </c>
-      <c r="J16" s="76">
+      <c r="J16" s="65">
         <f>I16*J3</f>
         <v>15.2</v>
       </c>
-      <c r="K16" s="77"/>
+      <c r="K16" s="66"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="74" t="s">
+      <c r="B17" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75" t="s">
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="76">
+      <c r="G17" s="65">
         <v>0.02</v>
       </c>
-      <c r="H17" s="75">
+      <c r="H17" s="64">
         <v>1</v>
       </c>
-      <c r="I17" s="76">
+      <c r="I17" s="65">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="J17" s="76">
+      <c r="J17" s="65">
         <f>I17*J3</f>
         <v>0.8</v>
       </c>
-      <c r="K17" s="77"/>
+      <c r="K17" s="66"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75" t="s">
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="76">
+      <c r="G18" s="65">
         <v>0.45</v>
       </c>
-      <c r="H18" s="75">
+      <c r="H18" s="64">
         <v>1</v>
       </c>
-      <c r="I18" s="76">
+      <c r="I18" s="65">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="J18" s="76">
+      <c r="J18" s="65">
         <f>I18*J3</f>
         <v>18</v>
       </c>
-      <c r="K18" s="77"/>
+      <c r="K18" s="66"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="74" t="s">
+      <c r="B19" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="C19" s="75" t="s">
+      <c r="C19" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75" t="s">
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="G19" s="76">
+      <c r="G19" s="65">
         <v>0.05</v>
       </c>
-      <c r="H19" s="75">
+      <c r="H19" s="64">
         <v>1</v>
       </c>
-      <c r="I19" s="76">
+      <c r="I19" s="65">
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="J19" s="76">
+      <c r="J19" s="65">
         <f>I19*J3</f>
         <v>2</v>
       </c>
-      <c r="K19" s="77"/>
+      <c r="K19" s="66"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="68"/>
-      <c r="B20" s="74" t="s">
+      <c r="A20" s="57"/>
+      <c r="B20" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="75" t="s">
+      <c r="C20" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75" t="s">
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="76">
+      <c r="G20" s="65">
         <v>0.02</v>
       </c>
-      <c r="H20" s="75">
+      <c r="H20" s="64">
         <v>1</v>
       </c>
-      <c r="I20" s="76">
+      <c r="I20" s="65">
         <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
-      <c r="J20" s="76">
+      <c r="J20" s="65">
         <f>I20*J3</f>
         <v>0.8</v>
       </c>
-      <c r="K20" s="77"/>
-      <c r="L20" s="83"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="72"/>
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="79" t="s">
+      <c r="C21" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="79" t="s">
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="G21" s="81">
+      <c r="G21" s="70">
         <v>0.01</v>
       </c>
-      <c r="H21" s="79">
+      <c r="H21" s="68">
         <v>1</v>
       </c>
-      <c r="I21" s="81">
+      <c r="I21" s="70">
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="J21" s="81">
+      <c r="J21" s="70">
         <f>I21*J3</f>
         <v>0.4</v>
       </c>
-      <c r="K21" s="82"/>
+      <c r="K21" s="71"/>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H22" s="72">
+      <c r="H22" s="61">
         <f>SUM(H4:H21)</f>
         <v>25</v>
       </c>
-      <c r="I22" s="69">
+      <c r="I22" s="58">
         <f>SUM(I4:I21)</f>
         <v>9.73</v>
       </c>
-      <c r="J22" s="73">
+      <c r="J22" s="62">
         <f>SUM(J3:J21)</f>
         <v>429.19999999999993</v>
       </c>
@@ -4476,18 +4499,18 @@
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="139" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="67"/>
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="140"/>
+      <c r="J24" s="140"/>
+      <c r="K24" s="141"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B25" s="17" t="s">
@@ -4545,7 +4568,7 @@
       <c r="K26" s="6"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
+      <c r="A27" s="72"/>
       <c r="B27" s="10"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -4563,7 +4586,7 @@
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="46"/>
-      <c r="L27" s="83"/>
+      <c r="L27" s="72"/>
     </row>
     <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="11"/>
@@ -4584,14 +4607,14 @@
         <v>0</v>
       </c>
       <c r="J28" s="9"/>
-      <c r="K28" s="84"/>
+      <c r="K28" s="73"/>
     </row>
     <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I29" s="69">
+      <c r="I29" s="58">
         <f>SUM(I26:I28)</f>
         <v>0</v>
       </c>
-      <c r="J29" s="70">
+      <c r="J29" s="59">
         <f>SUM(J26:J28)</f>
         <v>0</v>
       </c>
@@ -4628,18 +4651,18 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="67"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="141"/>
     </row>
     <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="13" t="s">
@@ -4720,18 +4743,18 @@
     </row>
     <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="139" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="67"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="141"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
@@ -4765,7 +4788,7 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="110" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -4792,10 +4815,10 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
-      <c r="C12" s="140"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="141"/>
+      <c r="F12" s="120"/>
       <c r="G12" s="4"/>
       <c r="H12" s="2"/>
       <c r="I12" s="5"/>
@@ -4816,11 +4839,11 @@
     </row>
     <row r="14" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G14" s="1"/>
-      <c r="I14" s="69">
+      <c r="I14" s="58">
         <f>SUM(I11:I13)</f>
         <v>0.4</v>
       </c>
-      <c r="J14" s="70">
+      <c r="J14" s="59">
         <f>SUM(J11:J13)</f>
         <v>240</v>
       </c>

--- a/Docs/BSides22 Project Summary.xlsx
+++ b/Docs/BSides22 Project Summary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE49461-28C5-4CB0-A014-2B56AD0F70A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA2DF16-169E-4ED2-A65E-34806AA77400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-34670" yWindow="2340" windowWidth="35760" windowHeight="17560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,6 +14,7 @@
     <sheet name="ConBadge BOM" sheetId="1" r:id="rId4"/>
     <sheet name="KidsBadge BOM" sheetId="8" r:id="rId5"/>
     <sheet name="SAO BOM" sheetId="4" r:id="rId6"/>
+    <sheet name="Instructions" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="174">
   <si>
     <t>Project Name</t>
   </si>
@@ -544,6 +545,18 @@
   </si>
   <si>
     <t>Professional Services</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>DO NOT ADJUST THESE VALUES</t>
+  </si>
+  <si>
+    <t>Calculated Summary of Costs</t>
+  </si>
+  <si>
+    <t>These are Adjustable Values</t>
   </si>
 </sst>
 </file>
@@ -1875,10 +1888,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0E24C87-6631-4852-AEA5-9113B088B520}">
-  <dimension ref="B1:K31"/>
+  <dimension ref="B1:K37"/>
   <sheetViews>
-    <sheetView zoomScale="160" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2349,6 +2362,27 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
+    <row r="33" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C2:K2"/>
@@ -2363,7 +2397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120B6E52-9FB3-4627-B0F6-E5597E1CEEA7}">
   <dimension ref="B1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="144" zoomScaleNormal="144" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -2437,8 +2471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230ECA56-04B2-4271-9B6D-69C62BBA135C}">
   <dimension ref="B1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3076,16 +3110,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView zoomScale="142" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
@@ -3889,6 +3923,27 @@
       <c r="J32" s="59">
         <f>SUM(J28:J31)</f>
         <v>2398.4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="25" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3906,16 +3961,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB035DB-36FF-430F-ADEC-7F25D895F863}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView zoomScale="142" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.109375" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
@@ -4590,9 +4645,7 @@
     </row>
     <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="11"/>
-      <c r="C28" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
@@ -4617,6 +4670,27 @@
       <c r="J29" s="59">
         <f>SUM(J26:J28)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="25" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4634,15 +4708,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A18EF07E-B53E-4959-AFC9-08CFAA150A1A}">
-  <dimension ref="B1:K14"/>
+  <dimension ref="B1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
@@ -4848,6 +4922,27 @@
         <v>240</v>
       </c>
     </row>
+    <row r="15" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="25" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:K2"/>
@@ -4856,4 +4951,56 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230F6B49-9306-45E7-B5B3-FFF48E012E94}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Docs/BSides22 Project Summary.xlsx
+++ b/Docs/BSides22 Project Summary.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA2DF16-169E-4ED2-A65E-34806AA77400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{EAA2DF16-169E-4ED2-A65E-34806AA77400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD39E83C-A050-474F-BF6E-66F9B4E766AC}"/>
   <bookViews>
-    <workbookView xWindow="-34670" yWindow="2340" windowWidth="35760" windowHeight="17560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Summary" sheetId="5" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="SAO BOM" sheetId="4" r:id="rId6"/>
     <sheet name="Instructions" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1367,7 +1367,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1476,8 +1476,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="36" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="33" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="11" fillId="12" borderId="33" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="33" xfId="6" applyFont="1"/>
+    <xf numFmtId="44" fontId="11" fillId="12" borderId="33" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="37" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="38" xfId="6" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="39" xfId="6" applyFont="1" applyBorder="1"/>
@@ -1486,25 +1486,18 @@
     </xf>
     <xf numFmtId="44" fontId="11" fillId="12" borderId="39" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="40" xfId="6" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1514,8 +1507,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1525,16 +1517,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="12" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="12" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1557,6 +1549,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1573,24 +1583,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1891,57 +1883,57 @@
   <dimension ref="B1:K37"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1328125" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.19921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.86328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B2" s="81" t="s">
+    <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="B2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="121" t="s">
+      <c r="C2" s="113" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="123"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="74" t="s">
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="115"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B3" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="116" t="s">
         <v>124</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="126"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="74" t="s">
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="118"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B4" s="73" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="4"/>
@@ -1954,8 +1946,8 @@
       <c r="J4" s="2"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="74" t="s">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B5" s="73" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="43"/>
@@ -1968,8 +1960,8 @@
       <c r="J5" s="2"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="74" t="s">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B6" s="73" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="44"/>
@@ -1982,40 +1974,40 @@
       <c r="J6" s="2"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="74" t="s">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B7" s="73" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="45">
+        <v>375</v>
+      </c>
+      <c r="D7" s="75">
         <v>400</v>
       </c>
-      <c r="D7" s="76">
-        <v>400</v>
-      </c>
-      <c r="E7" s="76">
+      <c r="E7" s="75">
         <v>35</v>
       </c>
-      <c r="F7" s="76">
+      <c r="F7" s="75">
         <v>10</v>
       </c>
-      <c r="G7" s="76">
+      <c r="G7" s="75">
         <v>30</v>
       </c>
-      <c r="H7" s="76">
-        <v>20</v>
-      </c>
-      <c r="I7" s="76">
+      <c r="H7" s="75">
         <v>25</v>
       </c>
-      <c r="J7" s="76">
+      <c r="I7" s="75">
+        <v>30</v>
+      </c>
+      <c r="J7" s="75">
         <v>200</v>
       </c>
-      <c r="K7" s="77">
+      <c r="K7" s="76">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="74" t="s">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B8" s="73" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2"/>
@@ -2028,8 +2020,8 @@
       <c r="J8" s="2"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="74" t="s">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B9" s="73" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2"/>
@@ -2042,8 +2034,8 @@
       <c r="J9" s="2"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="74" t="s">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B10" s="73" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -2070,12 +2062,12 @@
       <c r="J10" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="K10" s="82" t="s">
+      <c r="K10" s="6" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="74" t="s">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B11" s="73" t="s">
         <v>136</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -2102,8 +2094,8 @@
       <c r="J11" s="2"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="74" t="s">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B12" s="73" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2130,8 +2122,8 @@
       <c r="J12" s="2"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="74" t="s">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B13" s="73" t="s">
         <v>141</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -2158,8 +2150,8 @@
       <c r="J13" s="2"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="74" t="s">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B14" s="73" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -2176,8 +2168,8 @@
       <c r="J14" s="2"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="74" t="s">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B15" s="73" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="2"/>
@@ -2190,8 +2182,8 @@
       <c r="J15" s="2"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="74" t="s">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B16" s="73" t="s">
         <v>17</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -2220,8 +2212,8 @@
       </c>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="74" t="s">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" s="73" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -2238,8 +2230,8 @@
       <c r="J17" s="2"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="74" t="s">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B18" s="73" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="2">
@@ -2256,8 +2248,8 @@
       <c r="J18" s="2"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B19" s="74" t="s">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B19" s="73" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="2"/>
@@ -2270,8 +2262,8 @@
       <c r="J19" s="2"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="75" t="s">
+    <row r="20" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="74" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="8"/>
@@ -2284,7 +2276,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
@@ -2299,7 +2291,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2310,7 +2302,7 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -2321,7 +2313,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -2332,7 +2324,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2343,7 +2335,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B31" s="2" t="s">
         <v>26</v>
       </c>
@@ -2362,23 +2354,23 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
-    <row r="33" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="34" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B35" s="23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B36" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="25" t="s">
         <v>63</v>
       </c>
@@ -2401,66 +2393,66 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="111" t="s">
+    <row r="1" spans="2:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="112"/>
-    </row>
-    <row r="3" spans="2:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="113" t="s">
+      <c r="C2" s="104"/>
+    </row>
+    <row r="3" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="114"/>
-    </row>
-    <row r="4" spans="2:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="B4" s="113" t="s">
+      <c r="C3" s="106"/>
+    </row>
+    <row r="4" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="114"/>
-    </row>
-    <row r="5" spans="2:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="B5" s="113" t="s">
+      <c r="C4" s="106"/>
+    </row>
+    <row r="5" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="114"/>
-    </row>
-    <row r="6" spans="2:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="113" t="s">
+      <c r="C5" s="106"/>
+    </row>
+    <row r="6" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="114"/>
-    </row>
-    <row r="7" spans="2:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="B7" s="113" t="s">
+      <c r="C6" s="106"/>
+    </row>
+    <row r="7" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="115"/>
-    </row>
-    <row r="8" spans="2:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="B8" s="113" t="s">
+      <c r="C7" s="107"/>
+    </row>
+    <row r="8" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="105" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="114"/>
-    </row>
-    <row r="9" spans="2:3" ht="18" x14ac:dyDescent="0.35">
-      <c r="B9" s="113" t="s">
+      <c r="C8" s="106"/>
+    </row>
+    <row r="9" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="116"/>
-    </row>
-    <row r="10" spans="2:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="117" t="s">
+      <c r="C9" s="108"/>
+    </row>
+    <row r="10" spans="2:3" ht="18.399999999999999" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="118"/>
+      <c r="C10" s="110"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2472,66 +2464,66 @@
   <dimension ref="B1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:B37"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.46484375" customWidth="1"/>
+    <col min="2" max="2" width="21.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.796875" customWidth="1"/>
     <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="5.88671875" customWidth="1"/>
-    <col min="8" max="8" width="19.88671875" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.86328125" customWidth="1"/>
+    <col min="8" max="8" width="19.86328125" customWidth="1"/>
+    <col min="9" max="9" width="12.53125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.796875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.1328125" customWidth="1"/>
+    <col min="16" max="16" width="10.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="129" t="s">
+    <row r="1" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="127" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="E2" s="131" t="s">
+      <c r="C2" s="128"/>
+      <c r="E2" s="129" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="132"/>
-      <c r="H2" s="131" t="s">
+      <c r="F2" s="130"/>
+      <c r="H2" s="129" t="s">
         <v>144</v>
       </c>
-      <c r="I2" s="132"/>
-      <c r="K2" s="133" t="s">
+      <c r="I2" s="130"/>
+      <c r="K2" s="119" t="s">
         <v>160</v>
       </c>
-      <c r="L2" s="134"/>
-    </row>
-    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="83" t="s">
+      <c r="L2" s="120"/>
+    </row>
+    <row r="3" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B3" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="84">
+      <c r="C3" s="80">
         <f>'Project Summary'!C7</f>
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="78">
+      <c r="F3" s="77">
         <f>'Project Summary'!K7</f>
         <v>40</v>
       </c>
       <c r="H3" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="78">
+      <c r="I3" s="77">
         <f>I27</f>
         <v>600</v>
       </c>
@@ -2540,28 +2532,25 @@
       </c>
       <c r="L3" s="48"/>
     </row>
-    <row r="4" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="85" t="s">
+    <row r="4" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="86">
+      <c r="C4" s="82">
         <f>C29</f>
-        <v>530</v>
-      </c>
-      <c r="E4" s="87"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="79"/>
+        <v>515</v>
+      </c>
+      <c r="E4" s="56"/>
+      <c r="H4" s="56"/>
       <c r="K4" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="99">
+      <c r="L4" s="91">
         <f>L17</f>
-        <v>14064.490000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>12977.66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="K5" s="51" t="s">
         <v>161</v>
       </c>
@@ -2569,34 +2558,34 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="127" t="s">
+    <row r="6" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="E6" s="127" t="s">
+      <c r="C6" s="126"/>
+      <c r="E6" s="125" t="s">
         <v>151</v>
       </c>
-      <c r="F6" s="128"/>
-      <c r="H6" s="127" t="s">
+      <c r="F6" s="126"/>
+      <c r="H6" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="128"/>
+      <c r="I6" s="126"/>
       <c r="K6" s="52" t="s">
         <v>162</v>
       </c>
-      <c r="L6" s="100">
+      <c r="L6" s="92">
         <f>L4-L5</f>
-        <v>10064.490000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+        <v>8977.66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B7" s="34" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="37">
         <f>'ConBadge BOM'!J24</f>
-        <v>6184</v>
+        <v>5797.5</v>
       </c>
       <c r="E7" s="34" t="s">
         <v>43</v>
@@ -2609,11 +2598,10 @@
         <v>43</v>
       </c>
       <c r="I7" s="37">
-        <f>'SAO BOM'!J7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+        <v>149.57</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B8" s="34" t="s">
         <v>44</v>
       </c>
@@ -2633,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B9" s="34" t="s">
         <v>146</v>
       </c>
@@ -2653,11 +2641,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B10" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="93">
+      <c r="C10" s="86">
         <f>D32</f>
         <v>374.57999999999993</v>
       </c>
@@ -2670,16 +2658,16 @@
       <c r="H10" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="93">
+      <c r="I10" s="86">
         <f>J30</f>
         <v>288.3</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B11" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="93">
+      <c r="C11" s="86">
         <f>D29</f>
         <v>1034.67</v>
       </c>
@@ -2692,23 +2680,21 @@
       <c r="H11" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="93">
+      <c r="I11" s="86">
         <f>J27</f>
         <v>320.45</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B12" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="60">
-        <v>250</v>
-      </c>
+      <c r="C12" s="60"/>
       <c r="E12" s="35" t="s">
         <v>79</v>
       </c>
       <c r="F12" s="60">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="H12" s="35" t="s">
         <v>79</v>
@@ -2717,12 +2703,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B13" s="35" t="s">
         <v>80</v>
       </c>
       <c r="C13" s="60">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>80</v>
@@ -2737,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B14" s="35" t="s">
         <v>163</v>
       </c>
@@ -2748,7 +2734,7 @@
         <v>163</v>
       </c>
       <c r="F14" s="60">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="35" t="s">
         <v>163</v>
@@ -2757,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B15" s="35" t="s">
         <v>169</v>
       </c>
@@ -2777,13 +2763,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="35" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="39">
         <f>'ConBadge BOM'!J32</f>
-        <v>2398.4</v>
+        <v>2248.5</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>49</v>
@@ -2802,239 +2788,238 @@
       <c r="O16" s="53"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="36" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="40">
         <f>SUM(C7:C16)</f>
-        <v>12154.78</v>
+        <v>11268.380000000001</v>
       </c>
       <c r="E17" s="36" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="40">
         <f>SUM(F7:F16)</f>
-        <v>1060.96</v>
+        <v>710.95999999999992</v>
       </c>
       <c r="H17" s="36" t="s">
         <v>50</v>
       </c>
       <c r="I17" s="40">
         <f>SUM(I7:I16)</f>
-        <v>848.75</v>
+        <v>998.31999999999994</v>
       </c>
       <c r="K17" s="28" t="s">
         <v>51</v>
       </c>
       <c r="L17" s="27">
         <f>C17+F17+I17</f>
-        <v>14064.490000000002</v>
+        <v>12977.66</v>
       </c>
       <c r="N17" s="3"/>
       <c r="O17" s="54"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="O18" s="53"/>
       <c r="P18" s="55"/>
     </row>
-    <row r="19" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="26" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="29">
         <f>C17 / (C3)</f>
-        <v>30.386950000000002</v>
+        <v>30.049013333333335</v>
       </c>
       <c r="E19" s="26" t="s">
         <v>52</v>
       </c>
       <c r="F19" s="29">
         <f>F17/F3</f>
-        <v>26.524000000000001</v>
+        <v>17.773999999999997</v>
       </c>
       <c r="H19" s="26" t="s">
         <v>52</v>
       </c>
       <c r="I19" s="29">
         <f>I17/I3</f>
-        <v>1.4145833333333333</v>
+        <v>1.6638666666666666</v>
       </c>
       <c r="L19" s="3"/>
       <c r="O19" s="53"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H20" s="87"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="88"/>
-    </row>
-    <row r="21" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="133" t="s">
+    <row r="20" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="H20" s="56"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B21" s="119" t="s">
         <v>158</v>
       </c>
-      <c r="C21" s="135"/>
-      <c r="D21" s="134"/>
-      <c r="H21" s="136" t="s">
+      <c r="C21" s="121"/>
+      <c r="D21" s="120"/>
+      <c r="H21" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="I21" s="137"/>
-      <c r="J21" s="138"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="108" t="s">
+      <c r="I21" s="123"/>
+      <c r="J21" s="124"/>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B22" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="109">
+      <c r="C22" s="101">
         <f>'Project Summary'!C7</f>
+        <v>375</v>
+      </c>
+      <c r="D22" s="99">
+        <v>577.08000000000004</v>
+      </c>
+      <c r="H22" s="97" t="s">
+        <v>152</v>
+      </c>
+      <c r="I22" s="98">
         <v>400</v>
       </c>
-      <c r="D22" s="107">
-        <v>577.08000000000004</v>
-      </c>
-      <c r="H22" s="105" t="s">
-        <v>152</v>
-      </c>
-      <c r="I22" s="106">
-        <v>400</v>
-      </c>
-      <c r="J22" s="107">
+      <c r="J22" s="99">
         <v>175.39</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="83" t="s">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B23" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="80">
+      <c r="C23" s="2">
         <f>'Project Summary'!E7</f>
         <v>35</v>
       </c>
-      <c r="D23" s="89">
+      <c r="D23" s="83">
         <v>87.97</v>
       </c>
-      <c r="H23" s="103" t="s">
+      <c r="H23" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="I23" s="97">
+      <c r="I23" s="90">
         <v>50</v>
       </c>
-      <c r="J23" s="89">
+      <c r="J23" s="83">
         <v>25.97</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="83" t="s">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B24" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="80">
+      <c r="C24" s="2">
         <f>'Project Summary'!F7</f>
         <v>10</v>
       </c>
-      <c r="D24" s="89">
+      <c r="D24" s="83">
         <v>108.71</v>
       </c>
-      <c r="H24" s="103" t="s">
+      <c r="H24" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="I24" s="97">
+      <c r="I24" s="90">
         <v>50</v>
       </c>
-      <c r="J24" s="89">
+      <c r="J24" s="83">
         <v>77.03</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="83" t="s">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B25" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="80">
+      <c r="C25" s="2">
         <f>'Project Summary'!G7</f>
         <v>30</v>
       </c>
-      <c r="D25" s="89">
+      <c r="D25" s="83">
         <v>63.31</v>
       </c>
-      <c r="H25" s="103" t="s">
+      <c r="H25" s="95" t="s">
         <v>155</v>
       </c>
-      <c r="I25" s="97">
+      <c r="I25" s="90">
         <v>50</v>
       </c>
-      <c r="J25" s="89">
+      <c r="J25" s="83">
         <v>21.29</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="83" t="s">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B26" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="C26" s="80">
+      <c r="C26" s="2">
         <v>10</v>
       </c>
-      <c r="D26" s="89">
+      <c r="D26" s="83">
         <v>39.47</v>
       </c>
-      <c r="H26" s="103" t="s">
+      <c r="H26" s="95" t="s">
         <v>156</v>
       </c>
-      <c r="I26" s="97">
+      <c r="I26" s="90">
         <v>50</v>
       </c>
-      <c r="J26" s="89">
+      <c r="J26" s="83">
         <v>20.77</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="83" t="s">
+    <row r="27" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="80">
+      <c r="C27" s="2">
         <f>'Project Summary'!I7</f>
-        <v>25</v>
-      </c>
-      <c r="D27" s="89">
+        <v>30</v>
+      </c>
+      <c r="D27" s="83">
         <v>94.82</v>
       </c>
-      <c r="H27" s="104" t="s">
+      <c r="H27" s="96" t="s">
         <v>164</v>
       </c>
       <c r="I27" s="8">
         <f>SUM(I22:I26)</f>
         <v>600</v>
       </c>
-      <c r="J27" s="94">
+      <c r="J27" s="87">
         <f>SUM(J22:J26)</f>
         <v>320.45</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="85" t="s">
+    <row r="28" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="90">
+      <c r="C28" s="8">
         <f>'Project Summary'!H7</f>
-        <v>20</v>
-      </c>
-      <c r="D28" s="91">
+        <v>25</v>
+      </c>
+      <c r="D28" s="84">
         <v>63.31</v>
       </c>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="102" t="s">
+    <row r="29" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="94" t="s">
         <v>149</v>
       </c>
       <c r="C29" s="41">
         <f>SUM(C22:C28)</f>
-        <v>530</v>
-      </c>
-      <c r="D29" s="101">
+        <v>515</v>
+      </c>
+      <c r="D29" s="93">
         <f>SUM(D22:D28)</f>
         <v>1034.67</v>
       </c>
-      <c r="I29" s="95" t="s">
+      <c r="I29" s="88" t="s">
         <v>165</v>
       </c>
       <c r="J29" s="48">
@@ -3042,49 +3027,49 @@
         <v>608.75</v>
       </c>
     </row>
-    <row r="30" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I30" s="96" t="s">
+    <row r="30" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I30" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="94">
+      <c r="J30" s="87">
         <f>J29-J27</f>
         <v>288.3</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="C31" s="95" t="s">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="C31" s="88" t="s">
         <v>150</v>
       </c>
       <c r="D31" s="48">
         <v>1409.25</v>
       </c>
     </row>
-    <row r="32" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="96" t="s">
+    <row r="32" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C32" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="92">
+      <c r="D32" s="85">
         <f>D31-D29</f>
         <v>374.57999999999993</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="34" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B35" s="23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B36" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="25" t="s">
         <v>63</v>
       </c>
@@ -3110,42 +3095,42 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B34" sqref="B34:B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="2.1328125" customWidth="1"/>
+    <col min="2" max="2" width="21.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" customWidth="1"/>
+    <col min="4" max="4" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.86328125" style="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" customWidth="1"/>
-    <col min="11" max="11" width="23.21875" customWidth="1"/>
+    <col min="10" max="10" width="15.86328125" customWidth="1"/>
+    <col min="11" max="11" width="23.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="139" t="s">
+    <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="141"/>
-    </row>
-    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="133"/>
+    </row>
+    <row r="3" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
@@ -3172,13 +3157,13 @@
       </c>
       <c r="J3" s="30">
         <f>'Cost Summary'!C3</f>
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B4" s="63" t="s">
         <v>105</v>
       </c>
@@ -3202,11 +3187,11 @@
       </c>
       <c r="J4" s="65">
         <f>I4*'Cost Summary'!C3</f>
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="K4" s="66"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B5" s="63" t="s">
         <v>106</v>
       </c>
@@ -3230,11 +3215,11 @@
       </c>
       <c r="J5" s="65">
         <f>I5*J3</f>
-        <v>28.000000000000004</v>
+        <v>26.250000000000004</v>
       </c>
       <c r="K5" s="66"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B6" s="63" t="s">
         <v>107</v>
       </c>
@@ -3258,11 +3243,11 @@
       </c>
       <c r="J6" s="65">
         <f>I6*J3</f>
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="K6" s="66"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B7" s="63" t="s">
         <v>108</v>
       </c>
@@ -3286,11 +3271,11 @@
       </c>
       <c r="J7" s="65">
         <f>I7*J3</f>
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="K7" s="66"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B8" s="63" t="s">
         <v>109</v>
       </c>
@@ -3314,11 +3299,11 @@
       </c>
       <c r="J8" s="65">
         <f>I8*J3</f>
-        <v>1160</v>
+        <v>1087.5</v>
       </c>
       <c r="K8" s="66"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B9" s="63" t="s">
         <v>83</v>
       </c>
@@ -3342,11 +3327,11 @@
       </c>
       <c r="J9" s="65">
         <f>I9*J3</f>
-        <v>1512</v>
+        <v>1417.5</v>
       </c>
       <c r="K9" s="66"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B10" s="63" t="s">
         <v>110</v>
       </c>
@@ -3370,11 +3355,11 @@
       </c>
       <c r="J10" s="65">
         <f>I10*J3</f>
-        <v>180</v>
+        <v>168.75</v>
       </c>
       <c r="K10" s="66"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B11" s="63" t="s">
         <v>111</v>
       </c>
@@ -3398,11 +3383,11 @@
       </c>
       <c r="J11" s="65">
         <f>I11*J3</f>
-        <v>60.000000000000007</v>
+        <v>56.250000000000007</v>
       </c>
       <c r="K11" s="66"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B12" s="63" t="s">
         <v>112</v>
       </c>
@@ -3426,11 +3411,11 @@
       </c>
       <c r="J12" s="65">
         <f>I12*J3</f>
-        <v>92</v>
+        <v>86.25</v>
       </c>
       <c r="K12" s="66"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B13" s="63" t="s">
         <v>113</v>
       </c>
@@ -3454,11 +3439,11 @@
       </c>
       <c r="J13" s="65">
         <f>I13*J3</f>
-        <v>600</v>
+        <v>562.5</v>
       </c>
       <c r="K13" s="66"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B14" s="63" t="s">
         <v>114</v>
       </c>
@@ -3482,11 +3467,11 @@
       </c>
       <c r="J14" s="65">
         <f>I14*J3</f>
-        <v>216</v>
+        <v>202.5</v>
       </c>
       <c r="K14" s="66"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B15" s="63" t="s">
         <v>114</v>
       </c>
@@ -3510,11 +3495,11 @@
       </c>
       <c r="J15" s="65">
         <f>I15*J3</f>
-        <v>800</v>
+        <v>750</v>
       </c>
       <c r="K15" s="66"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B16" s="63" t="s">
         <v>115</v>
       </c>
@@ -3538,11 +3523,11 @@
       </c>
       <c r="J16" s="65">
         <f>I16*J3</f>
-        <v>212</v>
+        <v>198.75</v>
       </c>
       <c r="K16" s="66"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B17" s="63" t="s">
         <v>116</v>
       </c>
@@ -3566,11 +3551,11 @@
       </c>
       <c r="J17" s="65">
         <f>I17*J3</f>
-        <v>172</v>
+        <v>161.25</v>
       </c>
       <c r="K17" s="66"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B18" s="63" t="s">
         <v>117</v>
       </c>
@@ -3594,11 +3579,11 @@
       </c>
       <c r="J18" s="65">
         <f>I18*J3</f>
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="K18" s="66"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B19" s="63" t="s">
         <v>118</v>
       </c>
@@ -3622,11 +3607,11 @@
       </c>
       <c r="J19" s="65">
         <f>I19*J3</f>
-        <v>188</v>
+        <v>176.25</v>
       </c>
       <c r="K19" s="66"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B20" s="63" t="s">
         <v>103</v>
       </c>
@@ -3650,11 +3635,11 @@
       </c>
       <c r="J20" s="65">
         <f>I20*J3</f>
-        <v>248</v>
+        <v>232.5</v>
       </c>
       <c r="K20" s="66"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B21" s="63" t="s">
         <v>119</v>
       </c>
@@ -3678,11 +3663,11 @@
       </c>
       <c r="J21" s="65">
         <f>I21*J3</f>
-        <v>28.000000000000004</v>
+        <v>26.250000000000004</v>
       </c>
       <c r="K21" s="66"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" s="57"/>
       <c r="B22" s="63" t="s">
         <v>120</v>
@@ -3707,12 +3692,11 @@
       </c>
       <c r="J22" s="65">
         <f>I22*J3</f>
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="K22" s="66"/>
-      <c r="L22" s="72"/>
-    </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="67" t="s">
         <v>121</v>
       </c>
@@ -3736,11 +3720,11 @@
       </c>
       <c r="J23" s="70">
         <f>I23*J3</f>
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="K23" s="71"/>
     </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H24" s="61">
         <f>SUM(H4:H23)</f>
         <v>59</v>
@@ -3751,28 +3735,28 @@
       </c>
       <c r="J24" s="62">
         <f>SUM(J3:J23)</f>
-        <v>6184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5797.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="139" t="s">
+    <row r="26" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B26" s="131" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="140"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="141"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="133"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B27" s="17" t="s">
         <v>65</v>
       </c>
@@ -3799,13 +3783,13 @@
       </c>
       <c r="J27" s="31">
         <f>J3</f>
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="K27" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B28" s="10" t="s">
         <v>127</v>
       </c>
@@ -3829,11 +3813,11 @@
       </c>
       <c r="J28" s="5">
         <f>G28*J27</f>
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B29" s="10" t="s">
         <v>41</v>
       </c>
@@ -3857,12 +3841,11 @@
       </c>
       <c r="J29" s="5">
         <f>I29*J27</f>
-        <v>626.4</v>
+        <v>587.24999999999989</v>
       </c>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="72"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B30" s="10"/>
       <c r="C30" s="2" t="s">
         <v>166</v>
@@ -3884,12 +3867,11 @@
       </c>
       <c r="J30" s="5">
         <f>I30*J27</f>
-        <v>1284</v>
+        <v>1203.75</v>
       </c>
       <c r="K30" s="46"/>
-      <c r="L30" s="72"/>
-    </row>
-    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="11"/>
       <c r="C31" s="8" t="s">
         <v>76</v>
@@ -3911,37 +3893,37 @@
       </c>
       <c r="J31" s="9">
         <f>I31*J27</f>
-        <v>88</v>
-      </c>
-      <c r="K31" s="73"/>
-    </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>82.5</v>
+      </c>
+      <c r="K31" s="72"/>
+    </row>
+    <row r="32" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I32" s="58">
         <f>SUM(I28:I31)</f>
         <v>5.9959999999999996</v>
       </c>
       <c r="J32" s="59">
         <f>SUM(J28:J31)</f>
-        <v>2398.4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2248.5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="34" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B35" s="23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B36" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B37" s="25" t="s">
         <v>63</v>
       </c>
@@ -3961,42 +3943,42 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB035DB-36FF-430F-ADEC-7F25D895F863}">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B31" sqref="B31:B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="2.1328125" customWidth="1"/>
+    <col min="2" max="2" width="21.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" customWidth="1"/>
+    <col min="4" max="4" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.86328125" style="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="15.88671875" customWidth="1"/>
-    <col min="11" max="11" width="23.21875" customWidth="1"/>
+    <col min="10" max="10" width="15.86328125" customWidth="1"/>
+    <col min="11" max="11" width="23.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="139" t="s">
+    <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="141"/>
-    </row>
-    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="133"/>
+    </row>
+    <row r="3" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
@@ -4029,7 +4011,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B4" s="63" t="s">
         <v>105</v>
       </c>
@@ -4057,7 +4039,7 @@
       </c>
       <c r="K4" s="66"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B5" s="63" t="s">
         <v>106</v>
       </c>
@@ -4085,7 +4067,7 @@
       </c>
       <c r="K5" s="66"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B6" s="63" t="s">
         <v>107</v>
       </c>
@@ -4113,7 +4095,7 @@
       </c>
       <c r="K6" s="66"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B7" s="63" t="s">
         <v>109</v>
       </c>
@@ -4141,7 +4123,7 @@
       </c>
       <c r="K7" s="66"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B8" s="63" t="s">
         <v>83</v>
       </c>
@@ -4169,7 +4151,7 @@
       </c>
       <c r="K8" s="66"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B9" s="63" t="s">
         <v>110</v>
       </c>
@@ -4197,7 +4179,7 @@
       </c>
       <c r="K9" s="66"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B10" s="63" t="s">
         <v>111</v>
       </c>
@@ -4225,7 +4207,7 @@
       </c>
       <c r="K10" s="66"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B11" s="63" t="s">
         <v>112</v>
       </c>
@@ -4253,7 +4235,7 @@
       </c>
       <c r="K11" s="66"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B12" s="63" t="s">
         <v>113</v>
       </c>
@@ -4281,7 +4263,7 @@
       </c>
       <c r="K12" s="66"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B13" s="63" t="s">
         <v>114</v>
       </c>
@@ -4309,7 +4291,7 @@
       </c>
       <c r="K13" s="66"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B14" s="63" t="s">
         <v>114</v>
       </c>
@@ -4337,7 +4319,7 @@
       </c>
       <c r="K14" s="66"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B15" s="63" t="s">
         <v>115</v>
       </c>
@@ -4365,7 +4347,7 @@
       </c>
       <c r="K15" s="66"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B16" s="63" t="s">
         <v>116</v>
       </c>
@@ -4393,7 +4375,7 @@
       </c>
       <c r="K16" s="66"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B17" s="63" t="s">
         <v>117</v>
       </c>
@@ -4421,7 +4403,7 @@
       </c>
       <c r="K17" s="66"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B18" s="63" t="s">
         <v>118</v>
       </c>
@@ -4449,7 +4431,7 @@
       </c>
       <c r="K18" s="66"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B19" s="63" t="s">
         <v>119</v>
       </c>
@@ -4477,7 +4459,7 @@
       </c>
       <c r="K19" s="66"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" s="57"/>
       <c r="B20" s="63" t="s">
         <v>120</v>
@@ -4505,9 +4487,8 @@
         <v>0.8</v>
       </c>
       <c r="K20" s="66"/>
-      <c r="L20" s="72"/>
-    </row>
-    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="67" t="s">
         <v>121</v>
       </c>
@@ -4535,7 +4516,7 @@
       </c>
       <c r="K21" s="71"/>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="H22" s="61">
         <f>SUM(H4:H21)</f>
         <v>25</v>
@@ -4549,25 +4530,25 @@
         <v>429.19999999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="139" t="s">
+    <row r="24" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B24" s="131" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="140"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="140"/>
-      <c r="K24" s="141"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C24" s="132"/>
+      <c r="D24" s="132"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="132"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="132"/>
+      <c r="K24" s="133"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B25" s="17" t="s">
         <v>65</v>
       </c>
@@ -4600,7 +4581,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B26" s="10"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -4622,8 +4603,7 @@
       </c>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="72"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B27" s="10"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -4641,9 +4621,8 @@
       </c>
       <c r="J27" s="5"/>
       <c r="K27" s="46"/>
-      <c r="L27" s="72"/>
-    </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="11"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -4660,9 +4639,9 @@
         <v>0</v>
       </c>
       <c r="J28" s="9"/>
-      <c r="K28" s="73"/>
-    </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K28" s="72"/>
+    </row>
+    <row r="29" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I29" s="58">
         <f>SUM(I26:I28)</f>
         <v>0</v>
@@ -4672,23 +4651,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="31" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B31" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B32" s="23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B33" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="25" t="s">
         <v>63</v>
       </c>
@@ -4714,31 +4693,31 @@
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.53125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="139" t="s">
+    <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="141"/>
-    </row>
-    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
+      <c r="K2" s="133"/>
+    </row>
+    <row r="3" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
@@ -4769,7 +4748,7 @@
       </c>
       <c r="K3" s="16"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B4" s="10"/>
       <c r="C4" s="12"/>
       <c r="D4" s="2"/>
@@ -4781,7 +4760,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="47"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B5" s="10"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -4793,7 +4772,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="11"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -4805,7 +4784,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="I7" s="32">
         <f>SUM(I4:I6)</f>
         <v>0</v>
@@ -4815,22 +4794,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="139" t="s">
+    <row r="8" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="9" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="140"/>
-      <c r="K9" s="141"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="133"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B10" s="17" t="s">
         <v>65</v>
       </c>
@@ -4861,8 +4840,8 @@
       </c>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="110" t="s">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B11" s="102" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -4887,19 +4866,19 @@
       </c>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B12" s="10"/>
-      <c r="C12" s="119"/>
+      <c r="C12" s="111"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="120"/>
+      <c r="F12" s="112"/>
       <c r="G12" s="4"/>
       <c r="H12" s="2"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="11"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -4911,7 +4890,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="G14" s="1"/>
       <c r="I14" s="58">
         <f>SUM(I11:I13)</f>
@@ -4922,23 +4901,23 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="16" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="25" t="s">
         <v>63</v>
       </c>
@@ -4959,24 +4938,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" s="23" t="s">
         <v>61</v>
       </c>
@@ -4984,7 +4963,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="24" t="s">
         <v>62</v>
       </c>
@@ -4992,7 +4971,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="25" t="s">
         <v>63</v>
       </c>

--- a/Docs/BSides22 Project Summary.xlsx
+++ b/Docs/BSides22 Project Summary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{EAA2DF16-169E-4ED2-A65E-34806AA77400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD39E83C-A050-474F-BF6E-66F9B4E766AC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9295E66-D960-43D6-B7F9-96091E7DBE50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6045" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Summary" sheetId="5" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="175">
   <si>
     <t>Project Name</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>These are Adjustable Values</t>
+  </si>
+  <si>
+    <t>Learn to Solder Kits</t>
   </si>
 </sst>
 </file>
@@ -2461,10 +2464,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230ECA56-04B2-4271-9B6D-69C62BBA135C}">
-  <dimension ref="B1:P37"/>
+  <dimension ref="B1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2486,8 +2489,8 @@
     <col min="16" max="16" width="10.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="127" t="s">
         <v>147</v>
       </c>
@@ -2505,7 +2508,7 @@
       </c>
       <c r="L2" s="120"/>
     </row>
-    <row r="3" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="79" t="s">
         <v>148</v>
       </c>
@@ -2524,7 +2527,7 @@
         <v>39</v>
       </c>
       <c r="I3" s="77">
-        <f>I27</f>
+        <f>I28</f>
         <v>600</v>
       </c>
       <c r="K3" s="50" t="s">
@@ -2532,12 +2535,12 @@
       </c>
       <c r="L3" s="48"/>
     </row>
-    <row r="4" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="81" t="s">
         <v>149</v>
       </c>
       <c r="C4" s="82">
-        <f>C29</f>
+        <f>C30</f>
         <v>515</v>
       </c>
       <c r="E4" s="56"/>
@@ -2546,11 +2549,11 @@
         <v>51</v>
       </c>
       <c r="L4" s="91">
-        <f>L17</f>
-        <v>12977.66</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <f>L18</f>
+        <v>13427.66</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="K5" s="51" t="s">
         <v>161</v>
       </c>
@@ -2558,7 +2561,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B6" s="125" t="s">
         <v>40</v>
       </c>
@@ -2576,10 +2579,10 @@
       </c>
       <c r="L6" s="92">
         <f>L4-L5</f>
-        <v>8977.66</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
+        <v>9427.66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" s="34" t="s">
         <v>43</v>
       </c>
@@ -2601,12 +2604,12 @@
         <v>149.57</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" s="34" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="42">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E8" s="34" t="s">
         <v>44</v>
@@ -2618,10 +2621,10 @@
         <v>44</v>
       </c>
       <c r="I8" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B9" s="34" t="s">
         <v>146</v>
       </c>
@@ -2641,12 +2644,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B10" s="34" t="s">
         <v>46</v>
       </c>
       <c r="C10" s="86">
-        <f>D32</f>
+        <f>D33</f>
         <v>374.57999999999993</v>
       </c>
       <c r="E10" s="34" t="s">
@@ -2659,16 +2662,16 @@
         <v>46</v>
       </c>
       <c r="I10" s="86">
-        <f>J30</f>
+        <f>J31</f>
         <v>288.3</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B11" s="34" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="86">
-        <f>D29</f>
+        <f>D30</f>
         <v>1034.67</v>
       </c>
       <c r="E11" s="34" t="s">
@@ -2681,11 +2684,11 @@
         <v>48</v>
       </c>
       <c r="I11" s="86">
-        <f>J27</f>
+        <f>J28</f>
         <v>320.45</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B12" s="35" t="s">
         <v>79</v>
       </c>
@@ -2703,12 +2706,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B13" s="35" t="s">
         <v>80</v>
       </c>
       <c r="C13" s="60">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E13" s="35" t="s">
         <v>80</v>
@@ -2723,12 +2726,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B14" s="35" t="s">
         <v>163</v>
       </c>
       <c r="C14" s="60">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E14" s="35" t="s">
         <v>163</v>
@@ -2743,344 +2746,356 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B15" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="60">
+        <v>400</v>
+      </c>
+      <c r="E15" s="35"/>
+      <c r="F15" s="60"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="60"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B16" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="C15" s="60">
+      <c r="C16" s="60">
         <v>0</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E16" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="F15" s="60">
+      <c r="F16" s="60">
         <v>0</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H16" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="I15" s="60">
+      <c r="I16" s="60">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B16" s="35" t="s">
+    <row r="17" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B17" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C17" s="39">
         <f>'ConBadge BOM'!J32</f>
         <v>2248.5</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E17" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F17" s="39">
         <f>'KidsBadge BOM'!J29</f>
         <v>0</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H17" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I17" s="39">
         <f>'SAO BOM'!J14</f>
         <v>240</v>
       </c>
-      <c r="O16" s="53"/>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B17" s="36" t="s">
+      <c r="O17" s="53"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="40">
-        <f>SUM(C7:C16)</f>
-        <v>11268.380000000001</v>
-      </c>
-      <c r="E17" s="36" t="s">
+      <c r="C18" s="40">
+        <f>SUM(C7:C17)</f>
+        <v>11618.380000000001</v>
+      </c>
+      <c r="E18" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="40">
-        <f>SUM(F7:F16)</f>
+      <c r="F18" s="40">
+        <f>SUM(F7:F17)</f>
         <v>710.95999999999992</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H18" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="40">
-        <f>SUM(I7:I16)</f>
-        <v>998.31999999999994</v>
-      </c>
-      <c r="K17" s="28" t="s">
+      <c r="I18" s="40">
+        <f>SUM(I7:I17)</f>
+        <v>1098.32</v>
+      </c>
+      <c r="K18" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="L17" s="27">
-        <f>C17+F17+I17</f>
-        <v>12977.66</v>
-      </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="O18" s="53"/>
-      <c r="P18" s="55"/>
+      <c r="L18" s="27">
+        <f>C18+F18+I18</f>
+        <v>13427.66</v>
+      </c>
+      <c r="N18" s="3"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="1"/>
     </row>
     <row r="19" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="26" t="s">
+      <c r="O19" s="53"/>
+      <c r="P19" s="55"/>
+    </row>
+    <row r="20" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="29">
-        <f>C17 / (C3)</f>
-        <v>30.049013333333335</v>
-      </c>
-      <c r="E19" s="26" t="s">
+      <c r="C20" s="29">
+        <f>C18 / (C3)</f>
+        <v>30.982346666666668</v>
+      </c>
+      <c r="E20" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="29">
-        <f>F17/F3</f>
+      <c r="F20" s="29">
+        <f>F18/F3</f>
         <v>17.773999999999997</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H20" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="I19" s="29">
-        <f>I17/I3</f>
-        <v>1.6638666666666666</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="H20" s="56"/>
-      <c r="I20" s="3"/>
+      <c r="I20" s="29">
+        <f>I18/I3</f>
+        <v>1.8305333333333331</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="3"/>
     </row>
     <row r="21" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B21" s="119" t="s">
+      <c r="H21" s="56"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B22" s="119" t="s">
         <v>158</v>
       </c>
-      <c r="C21" s="121"/>
-      <c r="D21" s="120"/>
-      <c r="H21" s="122" t="s">
+      <c r="C22" s="121"/>
+      <c r="D22" s="120"/>
+      <c r="H22" s="122" t="s">
         <v>159</v>
       </c>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B22" s="100" t="s">
+      <c r="I22" s="123"/>
+      <c r="J22" s="124"/>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B23" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="101">
+      <c r="C23" s="101">
         <f>'Project Summary'!C7</f>
         <v>375</v>
       </c>
-      <c r="D22" s="99">
+      <c r="D23" s="99">
         <v>577.08000000000004</v>
       </c>
-      <c r="H22" s="97" t="s">
+      <c r="H23" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="I22" s="98">
+      <c r="I23" s="98">
         <v>400</v>
       </c>
-      <c r="J22" s="99">
+      <c r="J23" s="99">
         <v>175.39</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B23" s="79" t="s">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B24" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C24" s="2">
         <f>'Project Summary'!E7</f>
         <v>35</v>
       </c>
-      <c r="D23" s="83">
+      <c r="D24" s="83">
         <v>87.97</v>
       </c>
-      <c r="H23" s="95" t="s">
+      <c r="H24" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="I23" s="90">
+      <c r="I24" s="90">
         <v>50</v>
       </c>
-      <c r="J23" s="83">
+      <c r="J24" s="83">
         <v>25.97</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B24" s="79" t="s">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B25" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C25" s="2">
         <f>'Project Summary'!F7</f>
         <v>10</v>
       </c>
-      <c r="D24" s="83">
+      <c r="D25" s="83">
         <v>108.71</v>
       </c>
-      <c r="H24" s="95" t="s">
+      <c r="H25" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="I24" s="90">
+      <c r="I25" s="90">
         <v>50</v>
       </c>
-      <c r="J24" s="83">
+      <c r="J25" s="83">
         <v>77.03</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B25" s="79" t="s">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B26" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C26" s="2">
         <f>'Project Summary'!G7</f>
         <v>30</v>
       </c>
-      <c r="D25" s="83">
+      <c r="D26" s="83">
         <v>63.31</v>
       </c>
-      <c r="H25" s="95" t="s">
+      <c r="H26" s="95" t="s">
         <v>155</v>
-      </c>
-      <c r="I25" s="90">
-        <v>50</v>
-      </c>
-      <c r="J25" s="83">
-        <v>21.29</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="B26" s="79" t="s">
-        <v>157</v>
-      </c>
-      <c r="C26" s="2">
-        <v>10</v>
-      </c>
-      <c r="D26" s="83">
-        <v>39.47</v>
-      </c>
-      <c r="H26" s="95" t="s">
-        <v>156</v>
       </c>
       <c r="I26" s="90">
         <v>50</v>
       </c>
       <c r="J26" s="83">
+        <v>21.29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="B27" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="2">
+        <v>10</v>
+      </c>
+      <c r="D27" s="83">
+        <v>39.47</v>
+      </c>
+      <c r="H27" s="95" t="s">
+        <v>156</v>
+      </c>
+      <c r="I27" s="90">
+        <v>50</v>
+      </c>
+      <c r="J27" s="83">
         <v>20.77</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="79" t="s">
+    <row r="28" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C28" s="2">
         <f>'Project Summary'!I7</f>
         <v>30</v>
       </c>
-      <c r="D27" s="83">
+      <c r="D28" s="83">
         <v>94.82</v>
       </c>
-      <c r="H27" s="96" t="s">
+      <c r="H28" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="I27" s="8">
-        <f>SUM(I22:I26)</f>
+      <c r="I28" s="8">
+        <f>SUM(I23:I27)</f>
         <v>600</v>
       </c>
-      <c r="J27" s="87">
-        <f>SUM(J22:J26)</f>
+      <c r="J28" s="87">
+        <f>SUM(J23:J27)</f>
         <v>320.45</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="81" t="s">
+    <row r="29" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C29" s="8">
         <f>'Project Summary'!H7</f>
         <v>25</v>
       </c>
-      <c r="D28" s="84">
+      <c r="D29" s="84">
         <v>63.31</v>
       </c>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B29" s="94" t="s">
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B30" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="C29" s="41">
-        <f>SUM(C22:C28)</f>
+      <c r="C30" s="41">
+        <f>SUM(C23:C29)</f>
         <v>515</v>
       </c>
-      <c r="D29" s="93">
-        <f>SUM(D22:D28)</f>
+      <c r="D30" s="93">
+        <f>SUM(D23:D29)</f>
         <v>1034.67</v>
       </c>
-      <c r="I29" s="88" t="s">
+      <c r="I30" s="88" t="s">
         <v>165</v>
       </c>
-      <c r="J29" s="48">
+      <c r="J30" s="48">
         <f>293.7+315.05</f>
         <v>608.75</v>
       </c>
     </row>
-    <row r="30" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="I30" s="89" t="s">
+    <row r="31" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="I31" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="87">
-        <f>J29-J27</f>
+      <c r="J31" s="87">
+        <f>J30-J28</f>
         <v>288.3</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.45">
-      <c r="C31" s="88" t="s">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.45">
+      <c r="C32" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="D31" s="48">
+      <c r="D32" s="48">
         <v>1409.25</v>
       </c>
     </row>
-    <row r="32" spans="2:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C32" s="89" t="s">
+    <row r="33" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="C33" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="85">
-        <f>D31-D29</f>
+      <c r="D33" s="85">
+        <f>D32-D30</f>
         <v>374.57999999999993</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="34" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B34" s="22" t="s">
+    <row r="34" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="35" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B35" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B35" s="23" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B36" s="23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B36" s="24" t="s">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B37" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B37" s="25" t="s">
+    <row r="38" spans="2:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B38" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="H37" s="56"/>
-      <c r="I37" s="55"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="H22:J22"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="H6:I6"/>
